--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A56EB63-62C4-4A60-BF4E-6B000F805A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A3171-D2B6-4407-AE6A-AD1058EF1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="735" windowWidth="16380" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,10 @@
     <rPh sb="13" eb="14">
       <t>フ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>almighty</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -715,7 +719,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B33" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B34" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -919,24 +923,23 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -946,14 +949,14 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -963,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -979,10 +982,10 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -997,7 +1000,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1014,7 +1017,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1031,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1048,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1065,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1082,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1099,7 +1102,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1116,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1133,7 +1136,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1144,17 +1147,15 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1169,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1188,9 +1189,11 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1205,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1215,19 +1218,36 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1237,12 +1257,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,15 +1434,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1450,18 +1479,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A3171-D2B6-4407-AE6A-AD1058EF1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D920364-08AA-4BF2-BD57-78BE4D0FA212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="3225" yWindow="1200" windowWidth="16380" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -115,26 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>loginServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>logoutServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateDeleteServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>searchServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>myPageServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,6 +248,111 @@
   </si>
   <si>
     <t>almighty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()でuserRegist.jspまたはquestionPost.jspまたはanswerPost.jspにforward。doPost()で登録し、ウィンドウを消す。</t>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateDeleteServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()でreset.jspまたはanswerEdit.jspまたはquestionEdit.jspにforward。doPost()でresult.jspにforward。または編集が完了しウィンドウを消す。</t>
+    <rPh sb="93" eb="95">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()でmyPage.jspにforward。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doPost()でsearchResult.jspにforward。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()でloginServletまたはcategory.jspまたはguide.jspまたはunanswered.jspにリダイレクト。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()でlogin.jspにセッションを消してforward。doPost()でunanswered.jspにリダイレクト。</t>
+    <rPh sb="24" eb="25">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別ウィンドウで表示</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別ウィンドウで表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBと合わせる</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのテーブルを結合させたもの</t>
+    <rPh sb="9" eb="11">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convenient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便利メソッドクラス</t>
+    <rPh sb="0" eb="2">
+      <t>ベンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -335,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -676,7 +764,7 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="6" max="6" width="75.125" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -712,14 +800,16 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B34" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B36" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -729,12 +819,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -746,12 +838,14 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -763,9 +857,11 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -780,9 +876,11 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -797,9 +895,11 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -814,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -831,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -848,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -865,9 +965,11 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -882,9 +984,11 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -899,9 +1003,11 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -916,13 +1022,16 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -932,9 +1041,11 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -943,47 +1054,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -997,12 +1110,12 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1014,10 +1127,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1031,10 +1144,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1048,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1065,12 +1178,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1082,12 +1197,14 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1099,10 +1216,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1116,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1133,10 +1250,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1150,12 +1267,14 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1164,16 +1283,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1183,17 +1302,15 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1208,9 +1325,11 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1225,9 +1344,11 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1235,19 +1356,53 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1257,9 +1412,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1434,27 +1592,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1479,9 +1625,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D920364-08AA-4BF2-BD57-78BE4D0FA212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9088898-C5BF-4B52-89D7-69F5B0F81A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1200" windowWidth="16380" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2850" yWindow="885" windowWidth="16380" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,38 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>myPageServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>userDao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>questionDao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answerDao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/WEB-INF/jsp</t>
   </si>
   <si>
@@ -247,10 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>almighty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>doGet()でuserRegist.jspまたはquestionPost.jspまたはanswerPost.jspにforward。doPost()で登録し、ウィンドウを消す。</t>
     <rPh sb="76" eb="78">
       <t>トウロク</t>
@@ -345,14 +309,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>convenient</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>便利メソッドクラス</t>
     <rPh sb="0" eb="2">
       <t>ベンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyPageServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AnswerDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Almighty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Convenient</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -800,10 +800,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -819,10 +819,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -838,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -857,10 +857,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -876,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -965,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -984,10 +984,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1003,10 +1003,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1022,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1041,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1060,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1076,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1093,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -1110,10 +1110,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -1127,10 +1127,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1144,10 +1144,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1161,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1178,13 +1178,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1197,13 +1197,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1216,10 +1216,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1233,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1250,10 +1250,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1267,13 +1267,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1286,13 +1286,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1305,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1325,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1344,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1412,12 +1412,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,15 +1589,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1625,18 +1634,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9088898-C5BF-4B52-89D7-69F5B0F81A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA72458-E110-4766-B502-1B6ECC03E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2850" yWindow="885" windowWidth="16380" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA72458-E110-4766-B502-1B6ECC03E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD400B9-9867-4C20-9A7B-5C2CB226C81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="885" windowWidth="16380" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-21585" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -353,6 +353,81 @@
   </si>
   <si>
     <t>Convenient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椹</t>
+    <rPh sb="0" eb="1">
+      <t>サワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大井川</t>
+    <rPh sb="0" eb="3">
+      <t>オオイガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉野、横倉</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨコクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横倉、吉野</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコクラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉野</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横倉</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椹、横倉</t>
+    <rPh sb="0" eb="1">
+      <t>サワラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨコクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉野、清水</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シミズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -377,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +519,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -805,7 +889,9 @@
       <c r="F3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -917,7 +1003,9 @@
         <v>55</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -934,7 +1022,9 @@
         <v>56</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -951,7 +1041,9 @@
         <v>57</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -970,7 +1062,9 @@
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -989,7 +1083,9 @@
       <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1008,7 +1104,9 @@
       <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1027,7 +1125,9 @@
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1046,7 +1146,9 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1065,7 +1167,9 @@
       <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1082,7 +1186,9 @@
         <v>9</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1099,7 +1205,9 @@
         <v>18</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1116,7 +1224,9 @@
         <v>19</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1412,9 +1522,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1589,27 +1702,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1634,9 +1735,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD400B9-9867-4C20-9A7B-5C2CB226C81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB359AE-329A-4DA3-980F-D61640A3EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21585" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="15105" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1125,7 +1125,7 @@
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1243,7 +1243,9 @@
         <v>20</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1522,12 +1524,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1702,15 +1701,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1735,18 +1746,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB359AE-329A-4DA3-980F-D61640A3EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7DAD1-93AD-404D-9A02-255ACE9443C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="15105" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-19875" yWindow="-780" windowWidth="18900" windowHeight="12945" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1003,7 +1003,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1524,9 +1524,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,27 +1704,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1746,9 +1737,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7DAD1-93AD-404D-9A02-255ACE9443C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BF1A2-8298-4B71-97C1-E7BBCF98BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19875" yWindow="-780" windowWidth="18900" windowHeight="12945" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-25470" yWindow="-705" windowWidth="18900" windowHeight="12945" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1022,7 +1022,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1524,12 +1524,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,15 +1701,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1737,18 +1746,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BF1A2-8298-4B71-97C1-E7BBCF98BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA987760-1ABC-4D21-BB4F-BB38CF81496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25470" yWindow="-705" windowWidth="18900" windowHeight="12945" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-15510" yWindow="-15" windowWidth="13680" windowHeight="8340" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -427,6 +427,26 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水、吉野</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横倉、椹</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコクラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サワラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -839,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K19" sqref="K18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -929,7 +949,9 @@
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1146,7 +1168,7 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1368,7 +1390,9 @@
         <v>27</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1387,7 +1411,9 @@
       <c r="F29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1406,7 +1432,9 @@
       <c r="F30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1524,9 +1552,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,27 +1732,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1746,9 +1765,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA987760-1ABC-4D21-BB4F-BB38CF81496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7CD3-01A8-4624-A229-3426C2002A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15510" yWindow="-15" windowWidth="13680" windowHeight="8340" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K19" sqref="K18:K19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1320,7 +1320,9 @@
       <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1339,7 +1341,9 @@
       <c r="F25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1552,12 +1556,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1732,15 +1733,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1765,18 +1778,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7CD3-01A8-4624-A229-3426C2002A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB0A3A-40C4-462F-90BF-B149E6485714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -447,6 +447,19 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>サワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の表示保留</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホリュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -515,13 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +565,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -930,7 +957,9 @@
       <c r="F4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -989,7 +1018,9 @@
       <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1172,7 +1203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1193,7 +1224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1212,7 +1243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <f>ROW()-2</f>
         <v>17</v>
@@ -1231,7 +1262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1250,7 +1281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1269,7 +1300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1286,7 +1317,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1303,7 +1334,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1324,7 +1355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1345,7 +1376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1362,7 +1393,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1379,7 +1410,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1394,11 +1425,11 @@
         <v>27</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1418,8 +1449,11 @@
       <c r="G29" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1439,8 +1473,11 @@
       <c r="G30" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1457,7 +1494,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1556,9 +1593,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1733,27 +1773,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1778,9 +1806,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB0A3A-40C4-462F-90BF-B149E6485714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B45ABD-01CA-4A37-A50D-0F37CF99DCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-22605" yWindow="-705" windowWidth="16245" windowHeight="10770" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>doGet()でloginServletまたはcategory.jspまたはguide.jspまたはunanswered.jspにリダイレクト。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>doGet()でlogin.jspにセッションを消してforward。doPost()でunanswered.jspにリダイレクト。</t>
     <rPh sb="24" eb="25">
       <t>ケ</t>
@@ -461,6 +457,10 @@
     <rPh sb="5" eb="7">
       <t>ホリュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()でloginServletまたはcategory.jspまたはguide.jspまたはunanswered.jspにforward。doPost()でcategory.jspにforward</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -934,10 +934,10 @@
         <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
@@ -955,10 +955,10 @@
         <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.4">
@@ -979,7 +979,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
@@ -1019,7 +1019,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1034,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>43</v>
@@ -1053,11 +1053,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1072,11 +1072,11 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1091,11 +1091,11 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1110,13 +1110,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1131,13 +1131,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1152,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1173,13 +1173,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1194,13 +1194,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1215,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -1349,10 +1349,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1370,10 +1370,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1444,13 +1444,13 @@
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -1468,13 +1468,13 @@
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1593,12 +1593,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1773,15 +1770,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1806,18 +1815,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B45ABD-01CA-4A37-A50D-0F37CF99DCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23667E41-A3BA-44C0-B45A-641BCEBB07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22605" yWindow="-705" windowWidth="16245" windowHeight="10770" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-18060" yWindow="1320" windowWidth="16245" windowHeight="10770" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -443,19 +443,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>サワラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像の表示保留</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホリュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -485,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +561,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -955,7 +951,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>73</v>
@@ -978,7 +974,7 @@
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1018,7 +1014,7 @@
       <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1039,7 +1035,9 @@
       <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1351,7 +1349,7 @@
       <c r="F24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1372,7 +1370,7 @@
       <c r="F25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1408,7 +1406,9 @@
         <v>26</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1446,12 +1446,10 @@
       <c r="F29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1470,12 +1468,10 @@
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1593,9 +1589,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1770,27 +1769,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1815,9 +1802,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23667E41-A3BA-44C0-B45A-641BCEBB07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE09A56-3760-4669-B6AC-6E26FB779F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18060" yWindow="1320" windowWidth="16245" windowHeight="10770" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>header.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>meToo.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -448,6 +444,14 @@
   </si>
   <si>
     <t>doGet()でloginServletまたはcategory.jspまたはguide.jspまたはunanswered.jspにforward。doPost()でcategory.jspにforward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drawer.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -882,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -927,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
@@ -948,13 +952,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.4">
@@ -969,13 +973,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
@@ -990,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1009,13 +1013,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1030,13 +1034,13 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1051,11 +1055,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1070,11 +1074,11 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1089,11 +1093,11 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1108,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1129,13 +1133,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1150,13 +1154,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1171,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1192,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1213,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1238,7 +1242,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
@@ -1257,7 +1261,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1276,7 +1280,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1295,7 +1299,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -1313,7 +1317,9 @@
         <v>21</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1330,7 +1336,9 @@
         <v>22</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1347,10 +1355,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1368,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1407,7 +1415,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1426,7 +1434,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1444,10 +1452,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1466,10 +1474,10 @@
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1485,7 +1493,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1502,12 +1510,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1526,7 +1536,9 @@
       <c r="F33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1540,10 +1552,12 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1557,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1577,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1589,12 +1603,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1769,15 +1780,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1802,18 +1825,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE09A56-3760-4669-B6AC-6E26FB779F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628292C-7686-4DAE-8396-D3CCD3442E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -887,7 +887,7 @@
   <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -999,7 +999,9 @@
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1260,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1279,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1317,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1336,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1357,7 +1359,7 @@
       <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1378,7 +1380,7 @@
       <c r="F25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1414,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1476,7 +1478,7 @@
       <c r="F30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H30" s="7"/>
@@ -1603,9 +1605,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,27 +1785,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1825,9 +1818,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628292C-7686-4DAE-8396-D3CCD3442E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB84C5-6F77-4819-9340-E13F8B7160B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -476,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +574,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -957,7 +966,7 @@
       <c r="F4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1319,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1399,7 +1408,9 @@
         <v>25</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1605,12 +1616,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,15 +1793,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1818,18 +1838,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB84C5-6F77-4819-9340-E13F8B7160B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FDC86-1FCA-4E89-9649-3DF8364A2A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1008,7 +1008,7 @@
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1616,9 +1616,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,27 +1796,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1838,9 +1829,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FDC86-1FCA-4E89-9649-3DF8364A2A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4ACE66-C291-49F2-A0DF-5C439B3C95D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-29145" yWindow="2970" windowWidth="12255" windowHeight="10590" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -452,6 +452,16 @@
   </si>
   <si>
     <t>drawer.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像変更された場合</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +918,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -928,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -949,7 +959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B36" si="0">ROW()-2</f>
         <v>2</v>
@@ -970,7 +980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -991,7 +1001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1011,8 +1021,11 @@
       <c r="G6" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1033,7 +1046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1054,7 +1067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1073,7 +1086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1092,7 +1105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1111,7 +1124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1132,7 +1145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1153,7 +1166,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1174,7 +1187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1195,7 +1208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1368,7 +1381,7 @@
       <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1389,7 +1402,7 @@
       <c r="F25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1408,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1616,12 +1629,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1796,15 +1806,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1829,18 +1851,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4ACE66-C291-49F2-A0DF-5C439B3C95D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C5E54-04A6-41F4-9B7F-9B1403D3C221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29145" yWindow="2970" windowWidth="12255" windowHeight="10590" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -462,6 +462,10 @@
     <rPh sb="7" eb="9">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1018,7 +1016,7 @@
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1287,6 +1285,9 @@
       <c r="G19" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="H19" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1306,6 +1307,9 @@
       <c r="G20" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="H20" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1341,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1381,7 +1385,7 @@
       <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1402,7 +1406,7 @@
       <c r="F25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1629,9 +1633,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,27 +1813,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1851,9 +1846,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_.xlsx
+++ b/documents/ファイル構成一覧表_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C5E54-04A6-41F4-9B7F-9B1403D3C221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB1DF68-1AAD-4F63-B4D8-AD5637007925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1633,12 +1633,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1813,15 +1810,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1846,18 +1855,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>